--- a/실무_엑셀_예제_파일/Chapter07/07-005.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-005.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1F1256-8F3D-4A17-BDCE-6069E28125C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E21229-84C4-496F-B80E-83301C0F9ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="252" windowWidth="19956" windowHeight="13692" xr2:uid="{792F985A-B1DF-478A-8439-F551B65A61B1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{792F985A-B1DF-478A-8439-F551B65A61B1}"/>
   </bookViews>
   <sheets>
     <sheet name="온라인주문" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="135">
   <si>
     <t>주문일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -490,13 +481,28 @@
   <si>
     <t>여기다있소 온라인주문 내역 (2015년~2020년)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문건수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균배송일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,8 +556,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,6 +575,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +610,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,10 +632,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,6 +643,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,29 +964,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E70DD77-BFA2-49CE-BE4B-A6EDA396B3D2}">
-  <dimension ref="B1:I60"/>
+  <dimension ref="B1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="19.75" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.09765625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="34.69921875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.796875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="6.796875" style="7" customWidth="1"/>
-    <col min="11" max="12" width="13.296875" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="7"/>
+    <col min="1" max="1" width="4.08203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.08203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.58203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.08203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.4140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="7" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="7"/>
+    <col min="14" max="14" width="11.5" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:18" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="10" t="s">
         <v>131</v>
       </c>
@@ -972,8 +1000,8 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="2:9" ht="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:9" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:18" s="4" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,8 +1026,29 @@
       <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>42022</v>
       </c>
@@ -1024,8 +1073,34 @@
       <c r="I5" s="8">
         <v>228000</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7">
+        <f>SUMIF($F$5:$F$60, K5, $I$5:$I$60)</f>
+        <v>2804000</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="8">
+        <f>SUMIFS($I$4:$I$60,$F$4:$F$60, $N5, $D$4:$D$60, O$4)</f>
+        <v>1584000</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:R7" si="0">SUMIFS($I$4:$I$60,$F$4:$F$60, $N5, $D$4:$D$60, P$4)</f>
+        <v>258000</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>814000</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="0"/>
+        <v>148000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5">
         <v>42029</v>
       </c>
@@ -1050,8 +1125,34 @@
       <c r="I6" s="8">
         <v>75000</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6:L7" si="1">SUMIF($F$5:$F$60, K6, $I$5:$I$60)</f>
+        <v>9174000</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" ref="O6:O7" si="2">SUMIFS($I$4:$I$60,$F$4:$F$60, $N6, $D$4:$D$60, O$4)</f>
+        <v>1134000</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>3611000</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>4085000</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>344000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5">
         <v>42111</v>
       </c>
@@ -1076,8 +1177,34 @@
       <c r="I7" s="8">
         <v>1055000</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="1"/>
+        <v>5365000</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="2"/>
+        <v>1822000</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>1210000</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>2333000</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5">
         <v>42117</v>
       </c>
@@ -1102,8 +1229,9 @@
       <c r="I8" s="8">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5">
         <v>42187</v>
       </c>
@@ -1128,8 +1256,14 @@
       <c r="I9" s="8">
         <v>56000</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5">
         <v>42235</v>
       </c>
@@ -1154,8 +1288,15 @@
       <c r="I10" s="8">
         <v>1004000</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="7">
+        <f>COUNTIF($D$5:$D$60, K10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5">
         <v>42417</v>
       </c>
@@ -1180,8 +1321,15 @@
       <c r="I11" s="8">
         <v>35000</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" ref="L11:L13" si="3">COUNTIF($D$5:$D$60, K11)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5">
         <v>42427</v>
       </c>
@@ -1206,8 +1354,15 @@
       <c r="I12" s="8">
         <v>450000</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5">
         <v>42478</v>
       </c>
@@ -1232,8 +1387,15 @@
       <c r="I13" s="8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K13" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5">
         <v>42506</v>
       </c>
@@ -1258,8 +1420,9 @@
       <c r="I14" s="8">
         <v>99000</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5">
         <v>42541</v>
       </c>
@@ -1284,8 +1447,14 @@
       <c r="I15" s="8">
         <v>21000</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5">
         <v>42630</v>
       </c>
@@ -1310,8 +1479,15 @@
       <c r="I16" s="8">
         <v>996000</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K16" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="11">
+        <f>AVERAGEIF($D$5:$D$60, K16, $E$5:$E$60)</f>
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5">
         <v>42678</v>
       </c>
@@ -1336,8 +1512,15 @@
       <c r="I17" s="8">
         <v>10000</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="11">
+        <f t="shared" ref="L17:L19" si="4">AVERAGEIF($D$5:$D$60, K17, $E$5:$E$60)</f>
+        <v>4.0714285714285712</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5">
         <v>42693</v>
       </c>
@@ -1362,8 +1545,15 @@
       <c r="I18" s="8">
         <v>86000</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K18" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="4"/>
+        <v>5.5294117647058822</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="5">
         <v>42739</v>
       </c>
@@ -1388,8 +1578,15 @@
       <c r="I19" s="8">
         <v>99000</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="11">
+        <f t="shared" si="4"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="5">
         <v>42763</v>
       </c>
@@ -1414,8 +1611,9 @@
       <c r="I20" s="8">
         <v>12000</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5">
         <v>42767</v>
       </c>
@@ -1440,8 +1638,9 @@
       <c r="I21" s="8">
         <v>16000</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="5">
         <v>42768</v>
       </c>
@@ -1466,8 +1665,9 @@
       <c r="I22" s="8">
         <v>18000</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="5">
         <v>42845</v>
       </c>
@@ -1492,8 +1692,9 @@
       <c r="I23" s="8">
         <v>96000</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="5">
         <v>42898</v>
       </c>
@@ -1518,8 +1719,9 @@
       <c r="I24" s="8">
         <v>234000</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5">
         <v>42914</v>
       </c>
@@ -1544,8 +1746,9 @@
       <c r="I25" s="8">
         <v>24000</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="5">
         <v>42926</v>
       </c>
@@ -1570,8 +1773,9 @@
       <c r="I26" s="8">
         <v>63000</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="5">
         <v>43033</v>
       </c>
@@ -1596,8 +1800,9 @@
       <c r="I27" s="8">
         <v>1149000</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="5">
         <v>43058</v>
       </c>
@@ -1622,8 +1827,9 @@
       <c r="I28" s="8">
         <v>160000</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="5">
         <v>43069</v>
       </c>
@@ -1648,8 +1854,9 @@
       <c r="I29" s="8">
         <v>78000</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="5">
         <v>43097</v>
       </c>
@@ -1674,8 +1881,9 @@
       <c r="I30" s="8">
         <v>585000</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="5">
         <v>43131</v>
       </c>
@@ -1700,8 +1908,9 @@
       <c r="I31" s="8">
         <v>1881000</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="2:12" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="5">
         <v>43148</v>
       </c>
@@ -1726,8 +1935,9 @@
       <c r="I32" s="8">
         <v>408000</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5">
         <v>43168</v>
       </c>
@@ -1752,8 +1962,9 @@
       <c r="I33" s="8">
         <v>3000</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="5">
         <v>43178</v>
       </c>
@@ -1778,8 +1989,9 @@
       <c r="I34" s="8">
         <v>24000</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="5">
         <v>43180</v>
       </c>
@@ -1804,8 +2016,9 @@
       <c r="I35" s="8">
         <v>42000</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="5">
         <v>43317</v>
       </c>
@@ -1830,8 +2043,9 @@
       <c r="I36" s="8">
         <v>8000</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="5">
         <v>43368</v>
       </c>
@@ -1856,8 +2070,9 @@
       <c r="I37" s="8">
         <v>51000</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="5">
         <v>43405</v>
       </c>
@@ -1882,8 +2097,9 @@
       <c r="I38" s="8">
         <v>210000</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="5">
         <v>43582</v>
       </c>
@@ -1908,8 +2124,9 @@
       <c r="I39" s="8">
         <v>21000</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="5">
         <v>43642</v>
       </c>
@@ -1934,8 +2151,9 @@
       <c r="I40" s="8">
         <v>732000</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="5">
         <v>43651</v>
       </c>
@@ -1960,8 +2178,9 @@
       <c r="I41" s="8">
         <v>3395000</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="5">
         <v>43659</v>
       </c>
@@ -1986,8 +2205,9 @@
       <c r="I42" s="8">
         <v>24000</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="5">
         <v>43661</v>
       </c>
@@ -2012,8 +2232,9 @@
       <c r="I43" s="8">
         <v>232000</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="5">
         <v>43728</v>
       </c>
@@ -2038,8 +2259,9 @@
       <c r="I44" s="8">
         <v>14000</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="5">
         <v>43729</v>
       </c>
@@ -2064,8 +2286,9 @@
       <c r="I45" s="8">
         <v>50000</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="5">
         <v>43768</v>
       </c>
@@ -2090,8 +2313,9 @@
       <c r="I46" s="8">
         <v>106000</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="5">
         <v>43770</v>
       </c>
@@ -2116,8 +2340,9 @@
       <c r="I47" s="8">
         <v>62000</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="5">
         <v>43772</v>
       </c>
@@ -2142,8 +2367,9 @@
       <c r="I48" s="8">
         <v>126000</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="5">
         <v>43803</v>
       </c>
@@ -2168,8 +2394,9 @@
       <c r="I49" s="8">
         <v>84000</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="5">
         <v>43808</v>
       </c>
@@ -2194,8 +2421,9 @@
       <c r="I50" s="8">
         <v>234000</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="5">
         <v>43892</v>
       </c>
@@ -2220,8 +2448,9 @@
       <c r="I51" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="5">
         <v>43904</v>
       </c>
@@ -2246,8 +2475,9 @@
       <c r="I52" s="8">
         <v>1204000</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="5">
         <v>43926</v>
       </c>
@@ -2272,8 +2502,9 @@
       <c r="I53" s="8">
         <v>125000</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="5">
         <v>43950</v>
       </c>
@@ -2298,8 +2529,9 @@
       <c r="I54" s="8">
         <v>6000</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="5">
         <v>43958</v>
       </c>
@@ -2324,8 +2556,9 @@
       <c r="I55" s="8">
         <v>33000</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="5">
         <v>43973</v>
       </c>
@@ -2350,8 +2583,9 @@
       <c r="I56" s="8">
         <v>288000</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="5">
         <v>44031</v>
       </c>
@@ -2376,8 +2610,9 @@
       <c r="I57" s="8">
         <v>18000</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="5">
         <v>44054</v>
       </c>
@@ -2402,8 +2637,9 @@
       <c r="I58" s="8">
         <v>138000</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="5">
         <v>44099</v>
       </c>
@@ -2428,8 +2664,9 @@
       <c r="I59" s="8">
         <v>1135000</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="5">
         <v>44174</v>
       </c>
@@ -2454,6 +2691,22 @@
       <c r="I60" s="8">
         <v>10000</v>
       </c>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="2:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="11:11" ht="19.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
